--- a/data/trans_bre/P16A_n_R2-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P16A_n_R2-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>15.74001475335177</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12.07293633854001</v>
+        <v>12.07293633854002</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4501868199990816</v>
@@ -649,7 +649,7 @@
         <v>0.6476467990871991</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.3169210981876601</v>
+        <v>0.3169210981876605</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>7.311490108632028</v>
+        <v>6.887387713888455</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>16.21911243842536</v>
+        <v>16.36006519897945</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>12.08939012603587</v>
+        <v>12.00516672360338</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6.25409454679007</v>
+        <v>5.947014357358471</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2338328013187849</v>
+        <v>0.2309728809557066</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5949496518084604</v>
+        <v>0.6196366447714402</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4519635806548652</v>
+        <v>0.4599741548737458</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.1479461588768939</v>
+        <v>0.1437573502981914</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>16.80869001429212</v>
+        <v>17.16281682998315</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>24.8364636584305</v>
+        <v>24.70145648754578</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>19.57975746166836</v>
+        <v>20.03058078279787</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17.74446996862882</v>
+        <v>18.41975948072</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.6865903817540285</v>
+        <v>0.6989787775698726</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.079441834296673</v>
+        <v>1.109731122053606</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8839168378576834</v>
+        <v>0.9018626426175457</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.5127012671047553</v>
+        <v>0.5522662005382644</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>7.581493288603022</v>
+        <v>7.604168000614528</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>11.83119663267854</v>
+        <v>11.80106188046651</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5.071955295837222</v>
+        <v>5.503940631626566</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8.260938814646735</v>
+        <v>8.937663058906271</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.4003458523065485</v>
+        <v>0.3987590457607665</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4229619499728985</v>
+        <v>0.4210331612317904</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2001983807493395</v>
+        <v>0.226348597512057</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.2606375950193763</v>
+        <v>0.2858614762722531</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>14.75121515664769</v>
+        <v>14.68137139117102</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>20.31915267556906</v>
+        <v>20.07639206084849</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>13.4753140882178</v>
+        <v>13.64600900321669</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>16.54757840673557</v>
+        <v>16.7070717994878</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.9461138670184918</v>
+        <v>0.9436212739505127</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8593088898401918</v>
+        <v>0.853148831586773</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6496153459432732</v>
+        <v>0.667487384511513</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.6190768119649478</v>
+        <v>0.6377799366740883</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>10.6460260835435</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9.691976082630593</v>
+        <v>9.6919760826306</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8277636011074925</v>
@@ -849,7 +849,7 @@
         <v>0.466899777900101</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.3643525072246667</v>
+        <v>0.3643525072246669</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>7.373367238113282</v>
+        <v>7.51472806476739</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.594406697364158</v>
+        <v>2.932945616635549</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6.069425740643626</v>
+        <v>5.784477490714624</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6.035264885429997</v>
+        <v>6.266125807811719</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.513330267057744</v>
+        <v>0.5056170999376177</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08753877119448278</v>
+        <v>0.09694854937574597</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2345608798867685</v>
+        <v>0.2298964690923924</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.210617121493288</v>
+        <v>0.2176302272936954</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>14.02496667076563</v>
+        <v>14.18580568150041</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>11.6587888175481</v>
+        <v>11.66705499063462</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>15.35327435275097</v>
+        <v>15.00490610489719</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>13.31510993374545</v>
+        <v>13.51714422171288</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.225190360502288</v>
+        <v>1.217386769507401</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.446799272846662</v>
+        <v>0.4416245011701205</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7404340870525101</v>
+        <v>0.744881020349078</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.5447532385607858</v>
+        <v>0.5605019201680416</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>8.229185108080051</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7.306790387429452</v>
+        <v>7.306790387429446</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5084406223440081</v>
@@ -949,7 +949,7 @@
         <v>0.397029456139901</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.2516023756624331</v>
+        <v>0.2516023756624328</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.53324622791815</v>
+        <v>2.179437680218568</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>5.082521672460637</v>
+        <v>4.856975748124814</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.974804449133839</v>
+        <v>2.963071211539496</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3.037713927232881</v>
+        <v>3.534102724989061</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.142230590498338</v>
+        <v>0.1112786001148416</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2373763030337627</v>
+        <v>0.2051827219911988</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.08596155508179751</v>
+        <v>0.12292250588812</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.09616091616296026</v>
+        <v>0.1148284305021238</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>13.32193404117517</v>
+        <v>13.67745146290051</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>16.8635043044233</v>
+        <v>16.68088643897515</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>13.63687644718838</v>
+        <v>14.18272035904444</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>11.61876819155333</v>
+        <v>11.41727086922692</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.036481179743048</v>
+        <v>1.033408808774709</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.053633510899681</v>
+        <v>0.9888687209114543</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7484870918751407</v>
+        <v>0.7937958404702219</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4363730383360004</v>
+        <v>0.4299852317003751</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>10.21864865361842</v>
+        <v>10.01464460870946</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>12.34448222781256</v>
+        <v>12.20120553046643</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9.60442723545561</v>
+        <v>9.599180917694961</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>8.73983119777157</v>
+        <v>8.668688579646119</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.563974780230116</v>
+        <v>0.5546004606861854</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.467184657211956</v>
+        <v>0.4589833194331586</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.400290520339886</v>
+        <v>0.3979961512219402</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.2811118310535328</v>
+        <v>0.2811060840880571</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>14.08280016141072</v>
+        <v>14.27752466504583</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>16.86420246690183</v>
+        <v>16.86049774128785</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>14.01346061889478</v>
+        <v>13.94455617043996</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>13.11435162185658</v>
+        <v>12.67924853124776</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.854967070959809</v>
+        <v>0.8872890852801307</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.6978190685774023</v>
+        <v>0.7073801882282853</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.645090132065576</v>
+        <v>0.6276268361465603</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.4611990393743083</v>
+        <v>0.4452027910424168</v>
       </c>
     </row>
     <row r="19">
